--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1701.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1701.xlsx
@@ -354,7 +354,7 @@
         <v>0.6493367113868119</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.694331742633539</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1701.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1701.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3864886574840748</v>
+        <v>0.6075708866119385</v>
       </c>
       <c r="B1">
-        <v>0.6493367113868119</v>
+        <v>2.102619886398315</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.694331742633539</v>
+        <v>1.160134673118591</v>
       </c>
       <c r="E1">
-        <v>1.821703063805973</v>
+        <v>1.248434901237488</v>
       </c>
     </row>
   </sheetData>
